--- a/bt_mesh_sig_cold_warm/DOC/pin分配.xlsx
+++ b/bt_mesh_sig_cold_warm/DOC/pin分配.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve"> 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWM输出(控制光)</t>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制亮度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制冷暖)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +468,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -496,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -504,13 +512,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -532,13 +540,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -546,22 +554,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
